--- a/evaluation_v4/total_evaluation.xlsx
+++ b/evaluation_v4/total_evaluation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data_science\final_project\MAS-PRM\evaluation_v4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47AD52B3-CC4C-4988-945F-01D17D604B37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8DC36A-F3F6-4185-8621-D55B56793DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CoT_Eval" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,10 +88,20 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -246,7 +256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -254,40 +264,46 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -595,31 +611,31 @@
   <dimension ref="C6:U18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26:Q28"/>
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="13.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="9" style="1"/>
-    <col min="10" max="10" width="13.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="16" width="9" style="1"/>
-    <col min="17" max="17" width="18.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
         <v>0</v>
       </c>
@@ -627,7 +643,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C7" s="2" t="s">
         <v>1</v>
       </c>
@@ -652,23 +668,23 @@
       <c r="M7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="Q7" s="8" t="s">
+      <c r="Q7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R7" s="5" t="s">
+      <c r="R7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="S7" s="5" t="s">
+      <c r="S7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="T7" s="5" t="s">
+      <c r="T7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="U7" s="11" t="s">
+      <c r="U7" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C8" s="1">
         <v>0.35499999999999998</v>
       </c>
@@ -693,7 +709,7 @@
       <c r="M8" s="1">
         <v>7.9349999999999996</v>
       </c>
-      <c r="Q8" s="3" t="s">
+      <c r="Q8" s="6" t="s">
         <v>0</v>
       </c>
       <c r="R8" s="7">
@@ -705,62 +721,62 @@
       <c r="T8" s="7">
         <v>5.69</v>
       </c>
-      <c r="U8" s="12">
+      <c r="U8" s="8">
         <v>8.2799999999999994</v>
       </c>
     </row>
-    <row r="9" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:21" x14ac:dyDescent="0.25">
       <c r="Q9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="R9" s="4">
+      <c r="R9" s="10">
         <v>0.42</v>
       </c>
-      <c r="S9" s="4">
+      <c r="S9" s="10">
         <v>7.71</v>
       </c>
-      <c r="T9" s="4">
+      <c r="T9" s="10">
         <v>6.07</v>
       </c>
-      <c r="U9" s="13">
+      <c r="U9" s="11">
         <v>7.9349999999999996</v>
       </c>
     </row>
-    <row r="10" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="Q10" s="3" t="s">
+    <row r="10" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="Q10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="R10" s="7">
+      <c r="R10" s="12">
         <v>0.46</v>
       </c>
-      <c r="S10" s="7">
+      <c r="S10" s="12">
         <v>8.2850000000000001</v>
       </c>
-      <c r="T10" s="7">
+      <c r="T10" s="12">
         <v>6.23</v>
       </c>
-      <c r="U10" s="12">
+      <c r="U10" s="13">
         <v>8.1349999999999998</v>
       </c>
     </row>
-    <row r="11" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="Q11" s="10" t="s">
+    <row r="11" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="Q11" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="R11" s="6">
+      <c r="R11" s="15">
         <v>0.245</v>
       </c>
-      <c r="S11" s="6">
+      <c r="S11" s="15">
         <v>5.1349999999999998</v>
       </c>
-      <c r="T11" s="6">
+      <c r="T11" s="15">
         <v>3.21</v>
       </c>
-      <c r="U11" s="14">
+      <c r="U11" s="16">
         <v>4.0250000000000004</v>
       </c>
     </row>
-    <row r="16" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C16" s="1" t="s">
         <v>6</v>
       </c>
@@ -768,7 +784,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C17" s="2" t="s">
         <v>1</v>
       </c>
@@ -794,7 +810,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C18" s="1">
         <v>0.46</v>
       </c>
